--- a/biology/Histoire de la zoologie et de la botanique/Muséum_d'histoire_naturelle_de_Marseille/Muséum_d'histoire_naturelle_de_Marseille.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Muséum_d'histoire_naturelle_de_Marseille/Muséum_d'histoire_naturelle_de_Marseille.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Mus%C3%A9um_d%27histoire_naturelle_de_Marseille</t>
+          <t>Muséum_d'histoire_naturelle_de_Marseille</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le muséum d’histoire naturelle de Marseille a été créé en 1819 par Jean-Baptiste, marquis de Montgrand, maire de Marseille de mars 1813 à 1830 et le comte de Villeneuve-Bargemon, alors préfet. Il occupe, depuis 1869, l’aile droite du Palais Longchamp construit par l’architecte Henri-Jacques Espérandieu (1829-1874), dans le 4e arrondissement de Marseille.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Mus%C3%A9um_d%27histoire_naturelle_de_Marseille</t>
+          <t>Muséum_d'histoire_naturelle_de_Marseille</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le muséum a été créé en 1819. Il a occupé différents lieux, dont la Chapelle des Bernardines, avant de s'implanter définitivement en 1869 au Palais Longchamp qu'il partage avec le musée des Beaux-Arts.Le musée est aujourd'hui sous la tutelle du ministère de l'Enseignement supérieur et de la Recherche. Il a été classé musée de France en 2002.
 </t>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Mus%C3%A9um_d%27histoire_naturelle_de_Marseille</t>
+          <t>Muséum_d'histoire_naturelle_de_Marseille</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,7 +556,9 @@
           <t>Le musée</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">En tout, le muséum possède 83 000 spécimens d'animaux, 200 000 spécimens végétaux, 81 000 spécimens de paléontologie, et de 8 000 échantillons de minéraux. Une partie de ses collections est présentée au public, répartie sur quatre salles :
 la salle Safari, regroupant des animaux naturalisés ;
@@ -561,7 +577,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Mus%C3%A9um_d%27histoire_naturelle_de_Marseille</t>
+          <t>Muséum_d'histoire_naturelle_de_Marseille</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -579,7 +595,9 @@
           <t>Fréquentation</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">
 </t>
